--- a/English/DMMEnglish_memo.xlsx
+++ b/English/DMMEnglish_memo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11102377\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11102377\Documents\GitHub\Index\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1499F5-4377-475B-9ACE-DE665002E5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57910DDA-8AA8-49BC-9DEA-542E755FE30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13515" yWindow="1440" windowWidth="15015" windowHeight="14010" xr2:uid="{2687FCF1-77D5-4473-B184-D39978829C76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2687FCF1-77D5-4473-B184-D39978829C76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>I recently spoke with a woman from the Philippines and she was kind.</t>
   </si>
@@ -211,6 +211,13 @@
   </si>
   <si>
     <t>パスタを作るのが好き</t>
+  </si>
+  <si>
+    <t>この英会話が初めてで何をやったらいいかわからないですが、お任せしてもいいですか</t>
+  </si>
+  <si>
+    <t>I'm new to this English conversation and don't know what to do, can I leave it to you?</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -577,9 +584,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19A61E5-58E9-4ED3-BE2C-D80A858B938D}">
-  <dimension ref="A2:B25"/>
+  <dimension ref="A2:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -716,6 +723,14 @@
       </c>
       <c r="B25" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
